--- a/output/TRUXT_26269540000169.xlsx
+++ b/output/TRUXT_26269540000169.xlsx
@@ -845,10 +845,10 @@
         <v>44165</v>
       </c>
       <c r="B42">
-        <v>0.2473913999999999</v>
+        <v>0.2525189999999999</v>
       </c>
       <c r="C42">
-        <v>-0.006973207356951061</v>
+        <v>-0.00289121337979481</v>
       </c>
     </row>
   </sheetData>

--- a/output/TRUXT_26269540000169.xlsx
+++ b/output/TRUXT_26269540000169.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TRUXT R MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,469 +383,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42947</v>
       </c>
       <c r="B2">
-        <v>0.0206246000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42978</v>
       </c>
       <c r="B3">
-        <v>0.04274059999999991</v>
-      </c>
-      <c r="C3">
         <v>0.02166908381397015</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43008</v>
       </c>
       <c r="B4">
-        <v>0.06308040000000004</v>
-      </c>
-      <c r="C4">
         <v>0.01950609768143696</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43039</v>
       </c>
       <c r="B5">
-        <v>0.06613129999999989</v>
-      </c>
-      <c r="C5">
         <v>0.002869867603616738</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43069</v>
       </c>
       <c r="B6">
-        <v>0.06652009999999997</v>
-      </c>
-      <c r="C6">
         <v>0.0003646830366954568</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43100</v>
       </c>
       <c r="B7">
-        <v>0.07443780000000011</v>
-      </c>
-      <c r="C7">
         <v>0.007423863835290145</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43131</v>
       </c>
       <c r="B8">
-        <v>0.09495579999999992</v>
-      </c>
-      <c r="C8">
         <v>0.01909649865259744</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43159</v>
       </c>
       <c r="B9">
-        <v>0.09770469999999998</v>
-      </c>
-      <c r="C9">
         <v>0.00251051229647814</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43190</v>
       </c>
       <c r="B10">
-        <v>0.1009081000000001</v>
-      </c>
-      <c r="C10">
         <v>0.002918271188963706</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43220</v>
       </c>
       <c r="B11">
-        <v>0.1025370000000001</v>
-      </c>
-      <c r="C11">
         <v>0.001479596707481878</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43251</v>
       </c>
       <c r="B12">
-        <v>0.1176455000000001</v>
-      </c>
-      <c r="C12">
         <v>0.01370339498810469</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43281</v>
       </c>
       <c r="B13">
-        <v>0.1321600999999999</v>
-      </c>
-      <c r="C13">
         <v>0.01298676548154121</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43312</v>
       </c>
       <c r="B14">
-        <v>0.1298714999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.002021445553504253</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43343</v>
       </c>
       <c r="B15">
-        <v>0.1451199999999999</v>
-      </c>
-      <c r="C15">
         <v>0.0134957824849995</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43373</v>
       </c>
       <c r="B16">
-        <v>0.1439699999999999</v>
-      </c>
-      <c r="C16">
         <v>-0.001004261562106978</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43404</v>
       </c>
       <c r="B17">
-        <v>0.1461941</v>
-      </c>
-      <c r="C17">
         <v>0.001944194340760763</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43434</v>
       </c>
       <c r="B18">
-        <v>0.139729</v>
-      </c>
-      <c r="C18">
         <v>-0.005640493176504724</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43465</v>
       </c>
       <c r="B19">
-        <v>0.1443361000000001</v>
-      </c>
-      <c r="C19">
         <v>0.004042276716658133</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43496</v>
       </c>
       <c r="B20">
-        <v>0.1718447000000001</v>
-      </c>
-      <c r="C20">
         <v>0.02403891653859391</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43524</v>
       </c>
       <c r="B21">
-        <v>0.1636701</v>
-      </c>
-      <c r="C21">
         <v>-0.006975839033960707</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43555</v>
       </c>
       <c r="B22">
-        <v>0.1742973999999999</v>
-      </c>
-      <c r="C22">
         <v>0.009132571164284453</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43585</v>
       </c>
       <c r="B23">
-        <v>0.1764806000000001</v>
-      </c>
-      <c r="C23">
         <v>0.001859154248319284</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43616</v>
       </c>
       <c r="B24">
-        <v>0.1775248</v>
-      </c>
-      <c r="C24">
         <v>0.0008875624468436261</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43646</v>
       </c>
       <c r="B25">
-        <v>0.2005638999999999</v>
-      </c>
-      <c r="C25">
         <v>0.01956570256524515</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43677</v>
       </c>
       <c r="B26">
-        <v>0.2107418999999999</v>
-      </c>
-      <c r="C26">
         <v>0.008477682862195079</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43708</v>
       </c>
       <c r="B27">
-        <v>0.2270208</v>
-      </c>
-      <c r="C27">
         <v>0.01344539244904319</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43738</v>
       </c>
       <c r="B28">
-        <v>0.2282706000000001</v>
-      </c>
-      <c r="C28">
         <v>0.001018564640469011</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43769</v>
       </c>
       <c r="B29">
-        <v>0.2364036</v>
-      </c>
-      <c r="C29">
         <v>0.00662150506574033</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43799</v>
       </c>
       <c r="B30">
-        <v>0.2078728000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.02307563646692712</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43830</v>
       </c>
       <c r="B31">
-        <v>0.22801</v>
-      </c>
-      <c r="C31">
         <v>0.01667162303845227</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43861</v>
       </c>
       <c r="B32">
-        <v>0.2116389999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.01333132466348008</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43890</v>
       </c>
       <c r="B33">
-        <v>0.2083257000000001</v>
-      </c>
-      <c r="C33">
         <v>-0.002734560376481676</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43921</v>
       </c>
       <c r="B34">
-        <v>0.2174748</v>
-      </c>
-      <c r="C34">
         <v>0.007571716797879935</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43951</v>
       </c>
       <c r="B35">
-        <v>0.2228209000000001</v>
-      </c>
-      <c r="C35">
         <v>0.004391138116370152</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43982</v>
       </c>
       <c r="B36">
-        <v>0.2369517999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01155598501792032</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44012</v>
       </c>
       <c r="B37">
-        <v>0.2328555999999999</v>
-      </c>
-      <c r="C37">
         <v>-0.00331152757932851</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44043</v>
       </c>
       <c r="B38">
-        <v>0.2489395999999999</v>
-      </c>
-      <c r="C38">
         <v>0.01304613451891679</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44074</v>
       </c>
       <c r="B39">
-        <v>0.2664584000000001</v>
-      </c>
-      <c r="C39">
         <v>0.01402693933317534</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44104</v>
       </c>
       <c r="B40">
-        <v>0.2625033000000001</v>
-      </c>
-      <c r="C40">
         <v>-0.003122960848931156</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44135</v>
       </c>
       <c r="B41">
-        <v>0.2561507999999999</v>
-      </c>
-      <c r="C41">
         <v>-0.005031670016229062</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44165</v>
       </c>
       <c r="B42">
-        <v>0.2525189999999999</v>
-      </c>
-      <c r="C42">
-        <v>-0.00289121337979481</v>
+        <v>-0.002891770637729052</v>
       </c>
     </row>
   </sheetData>
